--- a/Vocabulario_Estudiantes_ELE.xlsx
+++ b/Vocabulario_Estudiantes_ELE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenz/Documents/Lorenz Dang Wirtschaftsinformatik Studium/00 Master of Science - Wirtschaftsinformatik/6. Semester Ausland/Spanisch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405D826-9E0C-6640-B074-8E432821E929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6F057F-7023-E045-8432-E12F09B603AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="1" activeTab="6" xr2:uid="{6F8074E6-9C4C-0047-BB4C-C1E33B9FB138}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="3" activeTab="9" xr2:uid="{6F8074E6-9C4C-0047-BB4C-C1E33B9FB138}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulario_ParaEmpezar" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,15 @@
     <sheet name="Vocabulario_Leccion4" sheetId="5" r:id="rId5"/>
     <sheet name="Vocabulario_Leccion5" sheetId="7" r:id="rId6"/>
     <sheet name="Vocabulario_Leccion6" sheetId="8" r:id="rId7"/>
-    <sheet name="Vocabulario_Leccion8" sheetId="6" r:id="rId8"/>
+    <sheet name="Vocabulario_Leccion7" sheetId="9" r:id="rId8"/>
+    <sheet name="Vocabulario_Leccion8" sheetId="6" r:id="rId9"/>
+    <sheet name="Vocabulario_Leccion9" sheetId="10" r:id="rId10"/>
+    <sheet name="Vocabulario_Leccion10" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Vocabulario_Leccion3" localSheetId="3">Vocabulario_Leccion3!$A$1:$B$332</definedName>
-    <definedName name="Vocabulario_Leccion8" localSheetId="7">Vocabulario_Leccion8!$A$1</definedName>
+    <definedName name="Vocabulario_Leccion7" localSheetId="7">Vocabulario_Leccion7!$A$1:$B$314</definedName>
+    <definedName name="Vocabulario_Leccion8" localSheetId="8">Vocabulario_Leccion8!$A$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,7 +59,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{E7393922-370E-C448-A869-C534DED12F14}" name="Vocabulario_Leccion8" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="2" xr16:uid="{DE7CE721-EB64-B04D-B20C-87605323645B}" name="Vocabulario_Leccion7" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/lorenz/Documents/Lorenz Dang Wirtschaftsinformatik Studium/00 Master of Science - Wirtschaftsinformatik/6. Semester Ausland/Spanisch/Vocabulario_Leccion7.csv" decimal="," thousands="." tab="0" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{E7393922-370E-C448-A869-C534DED12F14}" name="Vocabulario_Leccion8" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/lorenz/Documents/Lorenz Dang Wirtschaftsinformatik Studium/00 Master of Science - Wirtschaftsinformatik/6. Semester Ausland/Spanisch/Vocabulario_Leccion8.csv" decimal="," thousands="." tab="0" semicolon="1">
       <textFields>
         <textField/>
@@ -66,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="3181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="4514">
   <si>
     <t>la farmacia</t>
   </si>
@@ -9609,6 +9621,4005 @@
   </si>
   <si>
     <t>geschlechtsspezifische Unterschiede</t>
+  </si>
+  <si>
+    <t>completad (inf: completar)</t>
+  </si>
+  <si>
+    <t>vervollständigt; ergänzt</t>
+  </si>
+  <si>
+    <t>la libertad</t>
+  </si>
+  <si>
+    <t>Freiheit</t>
+  </si>
+  <si>
+    <t>vivir aventuras</t>
+  </si>
+  <si>
+    <t>Abenteuer erleben</t>
+  </si>
+  <si>
+    <t>el gusto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorliebe, Geschmack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Adónde? </t>
+  </si>
+  <si>
+    <t>Wohin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el albergue </t>
+  </si>
+  <si>
+    <t>(Jugend-)Herberge</t>
+  </si>
+  <si>
+    <t>la maleta</t>
+  </si>
+  <si>
+    <t>Koffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fijar </t>
+  </si>
+  <si>
+    <t>festlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el presupuesto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget, Haushaltsplan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el alojamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterkunft, Quartier </t>
+  </si>
+  <si>
+    <t>decidir un destino</t>
+  </si>
+  <si>
+    <t>sich für einen Zielort entscheiden, einen Zielort auswählen</t>
+  </si>
+  <si>
+    <t>hacer (g) la maleta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">den Koffer packen </t>
+  </si>
+  <si>
+    <t>informar(se)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(sich) informieren </t>
+  </si>
+  <si>
+    <t>nombra (inf: nombrar)</t>
+  </si>
+  <si>
+    <t>nenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la categoría </t>
+  </si>
+  <si>
+    <t>Kategorie, Begriff; Bereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el pasaporte </t>
+  </si>
+  <si>
+    <t>(Reise-)Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el champú </t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>la crema solar</t>
+  </si>
+  <si>
+    <t>Sonnencreme</t>
+  </si>
+  <si>
+    <t>el pijama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlafanzug, Pyjama </t>
+  </si>
+  <si>
+    <t>la bota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stiefel, feste Schuhe </t>
+  </si>
+  <si>
+    <t>la maquinilla de afeitar</t>
+  </si>
+  <si>
+    <t>Rasierapparat, Rasierer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el paraguas </t>
+  </si>
+  <si>
+    <t>Regenschirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el analgésico </t>
+  </si>
+  <si>
+    <t>Schmerzmittel</t>
+  </si>
+  <si>
+    <t>el chubasquero</t>
+  </si>
+  <si>
+    <t>Regenjacke, Regencape</t>
+  </si>
+  <si>
+    <t>la tableta</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>el documento</t>
+  </si>
+  <si>
+    <t>Dokument, p/ Papiere, Unterlagen</t>
+  </si>
+  <si>
+    <t>el DNI (Documento Nacional de Identidad)</t>
+  </si>
+  <si>
+    <t>Personalausweis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la tarieta sanitaria </t>
+  </si>
+  <si>
+    <t>Krankenversicherungskarte</t>
+  </si>
+  <si>
+    <t>el botiquín</t>
+  </si>
+  <si>
+    <t>Reiseapotheke, Hausapotheke</t>
+  </si>
+  <si>
+    <t>la tirita</t>
+  </si>
+  <si>
+    <t>Pflaster</t>
+  </si>
+  <si>
+    <t>el repelente de insectos</t>
+  </si>
+  <si>
+    <t>Insektenschutzmittel</t>
+  </si>
+  <si>
+    <t>la pastilla potabilizadora</t>
+  </si>
+  <si>
+    <t>Trinkwasseraufbereitungstablette</t>
+  </si>
+  <si>
+    <t>el complemento</t>
+  </si>
+  <si>
+    <t>Accessoire</t>
+  </si>
+  <si>
+    <t>el reloi</t>
+  </si>
+  <si>
+    <t>Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">las gafas de sol pl </t>
+  </si>
+  <si>
+    <t>Sonnenbrille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el gorro </t>
+  </si>
+  <si>
+    <t>Mütze, Kappe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el calzado </t>
+  </si>
+  <si>
+    <t>Schuhwerk, Schuhe pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el pantalón </t>
+  </si>
+  <si>
+    <t>Hose</t>
+  </si>
+  <si>
+    <t>el vestido</t>
+  </si>
+  <si>
+    <t>Kleid</t>
+  </si>
+  <si>
+    <t>la camiseta</t>
+  </si>
+  <si>
+    <t>T- Shirt</t>
+  </si>
+  <si>
+    <t>el jersey</t>
+  </si>
+  <si>
+    <t>Pullover</t>
+  </si>
+  <si>
+    <t>el bañador</t>
+  </si>
+  <si>
+    <t>Badeanzug, Badehose</t>
+  </si>
+  <si>
+    <t>el zapato</t>
+  </si>
+  <si>
+    <t>Schuh</t>
+  </si>
+  <si>
+    <t>la sandalia</t>
+  </si>
+  <si>
+    <t>Sandale</t>
+  </si>
+  <si>
+    <t>la (zapatilla) deportiva</t>
+  </si>
+  <si>
+    <t>Turnschuh, Sportschuh, Sneaker</t>
+  </si>
+  <si>
+    <t>el neceser</t>
+  </si>
+  <si>
+    <t>Kulturbeutel, Waschbeutel</t>
+  </si>
+  <si>
+    <t>la colonia</t>
+  </si>
+  <si>
+    <t>Kölnisch Wasser, Duftwasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el maquillaje </t>
+  </si>
+  <si>
+    <t>Schminkzeug, Make-up</t>
+  </si>
+  <si>
+    <t>el cepillo de dientes</t>
+  </si>
+  <si>
+    <t>Zahnbürste</t>
+  </si>
+  <si>
+    <t>el cargador</t>
+  </si>
+  <si>
+    <t>Ladegerät</t>
+  </si>
+  <si>
+    <t>el adaptador de enchufe</t>
+  </si>
+  <si>
+    <t>Steckeradapter</t>
+  </si>
+  <si>
+    <t>el equipaje : llevarse</t>
+  </si>
+  <si>
+    <t>(Reise-)Gepäck mitnehmen</t>
+  </si>
+  <si>
+    <t>Pekín</t>
+  </si>
+  <si>
+    <t>Peking</t>
+  </si>
+  <si>
+    <t>Hace sol.</t>
+  </si>
+  <si>
+    <t>Die Sonne scheint.</t>
+  </si>
+  <si>
+    <t>Hace calor.</t>
+  </si>
+  <si>
+    <t>Es ist heiß.</t>
+  </si>
+  <si>
+    <t>el calor</t>
+  </si>
+  <si>
+    <t>Wärme, Hitze</t>
+  </si>
+  <si>
+    <t>Hace frío.</t>
+  </si>
+  <si>
+    <t>Es ist kalt.</t>
+  </si>
+  <si>
+    <t>el frío</t>
+  </si>
+  <si>
+    <t>Kälte</t>
+  </si>
+  <si>
+    <t>Hace 2° (grados).</t>
+  </si>
+  <si>
+    <t>Es sind 2°</t>
+  </si>
+  <si>
+    <t>Llueve. (inf: llover)</t>
+  </si>
+  <si>
+    <t>Es regnet.</t>
+  </si>
+  <si>
+    <t>Nieva. (inf: nevar)</t>
+  </si>
+  <si>
+    <t>Es schneit.</t>
+  </si>
+  <si>
+    <t>Hace buen / mal tiempo.</t>
+  </si>
+  <si>
+    <t>Es ist gutes / schlechtes Wetter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piensa (inf: pensar) en </t>
+  </si>
+  <si>
+    <t>denke an</t>
+  </si>
+  <si>
+    <t>infórmate (inf: informarse)</t>
+  </si>
+  <si>
+    <t>informiere dich</t>
+  </si>
+  <si>
+    <t>muestra (inf: mostrar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zeige </t>
+  </si>
+  <si>
+    <t>adivina (inf: adivinar)</t>
+  </si>
+  <si>
+    <t>(er)rate</t>
+  </si>
+  <si>
+    <t>el / la viajero/-a</t>
+  </si>
+  <si>
+    <t>Reisende/r</t>
+  </si>
+  <si>
+    <t>relaciona (inf: relacionar)</t>
+  </si>
+  <si>
+    <t>verbinde</t>
+  </si>
+  <si>
+    <t>identificarse</t>
+  </si>
+  <si>
+    <t>sich identifizieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la aventurero/-a </t>
+  </si>
+  <si>
+    <t>Abenteurer/in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la controlador/a </t>
+  </si>
+  <si>
+    <t>kontrollfreudiger Mensch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la incansable </t>
+  </si>
+  <si>
+    <t>Unermüdliche/r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la urbanita </t>
+  </si>
+  <si>
+    <t>Stadtmensch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer (g) una escapada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurzurlaub machen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">siempre que </t>
+  </si>
+  <si>
+    <t xml:space="preserve">immer wenn </t>
+  </si>
+  <si>
+    <t>imprescindible</t>
+  </si>
+  <si>
+    <t>unentbehrlich</t>
+  </si>
+  <si>
+    <t>un par de...</t>
+  </si>
+  <si>
+    <t>ein paar ...</t>
+  </si>
+  <si>
+    <t>la prenda</t>
+  </si>
+  <si>
+    <t>Kleidungsstück</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cómodo/-a </t>
+  </si>
+  <si>
+    <t>bequem</t>
+  </si>
+  <si>
+    <t>la mochila</t>
+  </si>
+  <si>
+    <t>Rucksack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el material de deporte </t>
+  </si>
+  <si>
+    <t>Sportzubehör</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el trekking </t>
+  </si>
+  <si>
+    <t>Trekking</t>
+  </si>
+  <si>
+    <t>la escalada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klettern, Bergsteigen </t>
+  </si>
+  <si>
+    <t>faltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fehlen </t>
+  </si>
+  <si>
+    <t>solucionarse</t>
+  </si>
+  <si>
+    <t>sich regeln</t>
+  </si>
+  <si>
+    <t>en ruta</t>
+  </si>
+  <si>
+    <t>unterwegs</t>
+  </si>
+  <si>
+    <t>toda clase de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allerlei, vielerlei, jeglicher Art </t>
+  </si>
+  <si>
+    <t xml:space="preserve">odiar </t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>la improvisación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improvisation </t>
+  </si>
+  <si>
+    <t>sistemático/-a</t>
+  </si>
+  <si>
+    <t>systematisch</t>
+  </si>
+  <si>
+    <t>controlar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kontrollieren, überprüfen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">intentar + inf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">versuchen (zu) </t>
+  </si>
+  <si>
+    <t>de forma ordenada</t>
+  </si>
+  <si>
+    <t>ordentlich</t>
+  </si>
+  <si>
+    <t>el sobrepeso</t>
+  </si>
+  <si>
+    <t>Übergewicht</t>
+  </si>
+  <si>
+    <t>el aeropuerto</t>
+  </si>
+  <si>
+    <t>Flughafen</t>
+  </si>
+  <si>
+    <t>el relax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entspannung </t>
+  </si>
+  <si>
+    <t>exigente</t>
+  </si>
+  <si>
+    <t>anspruchsvoll, fordernd</t>
+  </si>
+  <si>
+    <t>vacio/-a</t>
+  </si>
+  <si>
+    <t>leer</t>
+  </si>
+  <si>
+    <t>el resto</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>vender</t>
+  </si>
+  <si>
+    <t>verkaufen</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regional, aus der Region </t>
+  </si>
+  <si>
+    <t>presentad (inf: presentar)</t>
+  </si>
+  <si>
+    <t>stellt vor</t>
+  </si>
+  <si>
+    <t>rellena (inf: rellenar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fülle aus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">preferido/-a </t>
+  </si>
+  <si>
+    <t>bevorzugt, Lieblings-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ser (yo soy) alérgico/-a </t>
+  </si>
+  <si>
+    <t>gegen etw. allergisch sein</t>
+  </si>
+  <si>
+    <t>a la preferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorliebe </t>
+  </si>
+  <si>
+    <t>colgad (inf: colgar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hängt auf </t>
+  </si>
+  <si>
+    <t>siguiente</t>
+  </si>
+  <si>
+    <t>folgende/r/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consistir en </t>
+  </si>
+  <si>
+    <t>bestehen in</t>
+  </si>
+  <si>
+    <t>el intercambio lingüístico/-a</t>
+  </si>
+  <si>
+    <t>Sprachaustausch</t>
+  </si>
+  <si>
+    <t>el campo de trabajo</t>
+  </si>
+  <si>
+    <t>Workcamp</t>
+  </si>
+  <si>
+    <t>el interrail</t>
+  </si>
+  <si>
+    <t>Interrail</t>
+  </si>
+  <si>
+    <t>el campamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferienlager </t>
+  </si>
+  <si>
+    <t>hace</t>
+  </si>
+  <si>
+    <t>vor (Zeit)</t>
+  </si>
+  <si>
+    <t>gracias a</t>
+  </si>
+  <si>
+    <t>dank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el proyecto solidario </t>
+  </si>
+  <si>
+    <t>Hilfsprojekt</t>
+  </si>
+  <si>
+    <t>la ONG (Organización No Gubernamental)</t>
+  </si>
+  <si>
+    <t>Nichtregierungsorganisation</t>
+  </si>
+  <si>
+    <t>con mucha ilusión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begierig, sehnlich, voller Hoffnung </t>
+  </si>
+  <si>
+    <t>menos mal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glücklicherweise, zum Glück </t>
+  </si>
+  <si>
+    <t xml:space="preserve">peruano/-a </t>
+  </si>
+  <si>
+    <t>más de cerca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">näher, aus nächster Nähe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprovechar la oportunidad de </t>
+  </si>
+  <si>
+    <t>die Gelegenheit nutzen</t>
+  </si>
+  <si>
+    <t>el / la voluntario/-a</t>
+  </si>
+  <si>
+    <t>Freiwillige/r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gehen, wandern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagrado/-a </t>
+  </si>
+  <si>
+    <t>heilig, ehrwürdig</t>
+  </si>
+  <si>
+    <t>el/la inca</t>
+  </si>
+  <si>
+    <t>Inka</t>
+  </si>
+  <si>
+    <t>merecer (zc) la pena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sich lohnen </t>
+  </si>
+  <si>
+    <t>pasado/-a</t>
+  </si>
+  <si>
+    <t>vergangen, vorig</t>
+  </si>
+  <si>
+    <t>recorrer</t>
+  </si>
+  <si>
+    <t>bereisen</t>
+  </si>
+  <si>
+    <t>la conexión</t>
+  </si>
+  <si>
+    <t>Verbindung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Londres </t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>el Eurostar</t>
+  </si>
+  <si>
+    <t>Eurostar-Zug</t>
+  </si>
+  <si>
+    <t>París</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Ámsterdam</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Berlín</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Múnich</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>Salzburgo</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Österreich</t>
+  </si>
+  <si>
+    <t>hacia</t>
+  </si>
+  <si>
+    <t>gegen, nach, in Richtung</t>
+  </si>
+  <si>
+    <t>Atenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">horas y horas </t>
+  </si>
+  <si>
+    <t>stundenlang</t>
+  </si>
+  <si>
+    <t>Bahnhof</t>
+  </si>
+  <si>
+    <t>hacer (g) amigos</t>
+  </si>
+  <si>
+    <t>Freunde finden, Freundschaft schließen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el montón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haufen </t>
+  </si>
+  <si>
+    <t>tener (g, je) malas experiencias</t>
+  </si>
+  <si>
+    <t>schlechte Erfahrungen machen</t>
+  </si>
+  <si>
+    <t>regresar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zurückkehren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">en ningún momento </t>
+  </si>
+  <si>
+    <t>zu keiner Zeit</t>
+  </si>
+  <si>
+    <t>el recuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erinnerung </t>
+  </si>
+  <si>
+    <t>increíble</t>
+  </si>
+  <si>
+    <t>unglaublich</t>
+  </si>
+  <si>
+    <t>mencionar</t>
+  </si>
+  <si>
+    <t>erwähnen</t>
+  </si>
+  <si>
+    <t>alojarse</t>
+  </si>
+  <si>
+    <t>übernachten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el hotel </t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>el barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boot, Schiff </t>
+  </si>
+  <si>
+    <t>turístico/-a</t>
+  </si>
+  <si>
+    <t>touristisch</t>
+  </si>
+  <si>
+    <t>el indefinido</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
+  </si>
+  <si>
+    <t>el verbo</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>ayer</t>
+  </si>
+  <si>
+    <t>gestern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Januar </t>
+  </si>
+  <si>
+    <t>pregunta (inf: preguntar)</t>
+  </si>
+  <si>
+    <t>frage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">último/-a </t>
+  </si>
+  <si>
+    <t>letzte/r/s</t>
+  </si>
+  <si>
+    <t>el continente</t>
+  </si>
+  <si>
+    <t>Kontinent</t>
+  </si>
+  <si>
+    <t>ponerse (g) enfermo/-a</t>
+  </si>
+  <si>
+    <t>krank werden</t>
+  </si>
+  <si>
+    <t>alguien</t>
+  </si>
+  <si>
+    <t>jemand</t>
+  </si>
+  <si>
+    <t>el accidente</t>
+  </si>
+  <si>
+    <t>Unfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué tal el viaje? </t>
+  </si>
+  <si>
+    <t>Wie war die Reise?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el foro </t>
+  </si>
+  <si>
+    <t>Eintrag</t>
+  </si>
+  <si>
+    <t>resume (inf: resumir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasse zusammen </t>
+  </si>
+  <si>
+    <t>contar (ue)</t>
+  </si>
+  <si>
+    <t>berichten von</t>
+  </si>
+  <si>
+    <t>el inti</t>
+  </si>
+  <si>
+    <t>Gottheit in der Mythologie der Inka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la competición </t>
+  </si>
+  <si>
+    <t>Wettbewerb, Wettkampf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la página de inicio </t>
+  </si>
+  <si>
+    <t>Startseite</t>
+  </si>
+  <si>
+    <t>Steckbrief</t>
+  </si>
+  <si>
+    <t>la expedición</t>
+  </si>
+  <si>
+    <t>Expedition</t>
+  </si>
+  <si>
+    <t>la isla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insel </t>
+  </si>
+  <si>
+    <t>poco a poco</t>
+  </si>
+  <si>
+    <t>nach und nach</t>
+  </si>
+  <si>
+    <t>tomar forma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestalt annehmen </t>
+  </si>
+  <si>
+    <t>desde entonces</t>
+  </si>
+  <si>
+    <t>seither, seitdem</t>
+  </si>
+  <si>
+    <t>la duración</t>
+  </si>
+  <si>
+    <t>Dauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la participante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilnehmer/in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de todo el mundo </t>
+  </si>
+  <si>
+    <t>aus aller Welt</t>
+  </si>
+  <si>
+    <t>enfrentarse a nuevos retos</t>
+  </si>
+  <si>
+    <t>sich neuen Herausforderungen stellen</t>
+  </si>
+  <si>
+    <t>desarrollar</t>
+  </si>
+  <si>
+    <t>entwickeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marruecos </t>
+  </si>
+  <si>
+    <t>Marokko</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>End-</t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>Marrakesch</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Eslovaquia</t>
+  </si>
+  <si>
+    <t>Slowakei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungarn </t>
+  </si>
+  <si>
+    <t>hace poco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kürzlich, vor kurzem </t>
+  </si>
+  <si>
+    <t>hacer (g) realidad un sueño</t>
+  </si>
+  <si>
+    <t>einen Traum verwirklichen</t>
+  </si>
+  <si>
+    <t>el sueño</t>
+  </si>
+  <si>
+    <t>Traum</t>
+  </si>
+  <si>
+    <t>financiar</t>
+  </si>
+  <si>
+    <t>finanzieren</t>
+  </si>
+  <si>
+    <t>el / la organizador/a</t>
+  </si>
+  <si>
+    <t>Veranstalter/in, Organisator/in</t>
+  </si>
+  <si>
+    <t>la cuota</t>
+  </si>
+  <si>
+    <t>Beitrag, Gebühr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la colaborador/a </t>
+  </si>
+  <si>
+    <t>Mitarbeiter/in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el /la particular </t>
+  </si>
+  <si>
+    <t>Privatperson</t>
+  </si>
+  <si>
+    <t>la institución pública</t>
+  </si>
+  <si>
+    <t>öffentliche Einrichtung</t>
+  </si>
+  <si>
+    <t>el Ministerio de Asuntos Exteriores</t>
+  </si>
+  <si>
+    <t>Außenministerium</t>
+  </si>
+  <si>
+    <t>la fundación</t>
+  </si>
+  <si>
+    <t>Gründung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el /la fundador/a </t>
+  </si>
+  <si>
+    <t>Gründer/in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el/la patrocinador/a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schirmherr/in, Sponsor/in </t>
+  </si>
+  <si>
+    <t>buscad (inf: buscar)</t>
+  </si>
+  <si>
+    <t>sucht</t>
+  </si>
+  <si>
+    <t>el requisito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anforderung, Voraussetzung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">en cambio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hingegen, stattdessen </t>
+  </si>
+  <si>
+    <t>por un lado ..., por otro</t>
+  </si>
+  <si>
+    <t>einerseits ..., andererseits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tener (g, ie) alma de viajero/-a </t>
+  </si>
+  <si>
+    <t>reiselustig sein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el alma f </t>
+  </si>
+  <si>
+    <t>Seele</t>
+  </si>
+  <si>
+    <t>la expresión temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeitangabe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">últimamente </t>
+  </si>
+  <si>
+    <t>in letzter Zeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bajo la lluvia </t>
+  </si>
+  <si>
+    <t>im Regen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convivir </t>
+  </si>
+  <si>
+    <t>zusammenleben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bañarse </t>
+  </si>
+  <si>
+    <t>(sich) baden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el Danubio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donau </t>
+  </si>
+  <si>
+    <t>hablad (inf: hablar)</t>
+  </si>
+  <si>
+    <t>sprecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volver (ue) a casa </t>
+  </si>
+  <si>
+    <t>heimkehren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berücksichtigen, bedenken </t>
+  </si>
+  <si>
+    <t>pensad (inf: pensar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denkt </t>
+  </si>
+  <si>
+    <t>proponed (inf: proponer)</t>
+  </si>
+  <si>
+    <t>schlagt vor</t>
+  </si>
+  <si>
+    <t>puntuar</t>
+  </si>
+  <si>
+    <t>mit Punkten bewerten, benoten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la más votado/-a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit den meisten Stimmen </t>
+  </si>
+  <si>
+    <t>votar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abstimmen, stimmen für </t>
+  </si>
+  <si>
+    <t>describir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beschreiben </t>
+  </si>
+  <si>
+    <t>durar</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es necesario + inf </t>
+  </si>
+  <si>
+    <t>es ist notwendig</t>
+  </si>
+  <si>
+    <t>la cuota de inscripción</t>
+  </si>
+  <si>
+    <t>Anmeldegebühr</t>
+  </si>
+  <si>
+    <t>el camino (de Santiago)</t>
+  </si>
+  <si>
+    <t>(Jakobs-)Weg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el millón </t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el/ la peregrino/-a </t>
+  </si>
+  <si>
+    <t>Pilger/in</t>
+  </si>
+  <si>
+    <t>habla (inf: hablar)</t>
+  </si>
+  <si>
+    <t>sprich</t>
+  </si>
+  <si>
+    <t>el sello</t>
+  </si>
+  <si>
+    <t>Briefmarke; Stempel</t>
+  </si>
+  <si>
+    <t>sacar dinero</t>
+  </si>
+  <si>
+    <t>Geld abheben</t>
+  </si>
+  <si>
+    <t>recargar</t>
+  </si>
+  <si>
+    <t>aufladen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la tarjeta prepago </t>
+  </si>
+  <si>
+    <t>Prepaidkarte</t>
+  </si>
+  <si>
+    <t>la consigna</t>
+  </si>
+  <si>
+    <t>Gepäckaufbewahrung, Schließfach</t>
+  </si>
+  <si>
+    <t>el matasellos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poststempel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">certificar </t>
+  </si>
+  <si>
+    <t>bescheinigen</t>
+  </si>
+  <si>
+    <t>la etapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etappe, Abschnitt </t>
+  </si>
+  <si>
+    <t>transportar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">befördern </t>
+  </si>
+  <si>
+    <t>la salida</t>
+  </si>
+  <si>
+    <t>Start, Abfahrt</t>
+  </si>
+  <si>
+    <t>la llegada</t>
+  </si>
+  <si>
+    <t>Ankunft</t>
+  </si>
+  <si>
+    <t>imaginad (inf: imaginar)</t>
+  </si>
+  <si>
+    <t>stellt euch vor</t>
+  </si>
+  <si>
+    <t>elegid (inf: elegir)</t>
+  </si>
+  <si>
+    <t>wählt aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el papel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolle </t>
+  </si>
+  <si>
+    <t>simulad (inf: simular)</t>
+  </si>
+  <si>
+    <t>spielt, stellt nach</t>
+  </si>
+  <si>
+    <t>la alternativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguro/-a </t>
+  </si>
+  <si>
+    <t>sicher</t>
+  </si>
+  <si>
+    <t>la condición</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedingung </t>
+  </si>
+  <si>
+    <t>despacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panamá </t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">europeo/-a </t>
+  </si>
+  <si>
+    <t>europäisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el Pacífico </t>
+  </si>
+  <si>
+    <t>Pazifik</t>
+  </si>
+  <si>
+    <t>el rascacielos</t>
+  </si>
+  <si>
+    <t>Wolkenkratzer</t>
+  </si>
+  <si>
+    <t>bancario/-a</t>
+  </si>
+  <si>
+    <t>Bank-</t>
+  </si>
+  <si>
+    <t>el canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanal </t>
+  </si>
+  <si>
+    <t>considerado/-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betrachtet, erachtet, angesehen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">octavo/-a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">achte/r/s </t>
+  </si>
+  <si>
+    <t>la maravilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wunder </t>
+  </si>
+  <si>
+    <t>fundado/-a</t>
+  </si>
+  <si>
+    <t>gegründet</t>
+  </si>
+  <si>
+    <t>(el) marzo</t>
+  </si>
+  <si>
+    <t>März</t>
+  </si>
+  <si>
+    <t>(el) julio</t>
+  </si>
+  <si>
+    <t>luli</t>
+  </si>
+  <si>
+    <t>(el) agosto</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>(el) diciembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dezember </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apostar (ue) por </t>
+  </si>
+  <si>
+    <t>setzen auf</t>
+  </si>
+  <si>
+    <t>la atracción turística</t>
+  </si>
+  <si>
+    <t>Touristenmagnet</t>
+  </si>
+  <si>
+    <t>la atracción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anziehungskraft; Attraktion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vecino/-a </t>
+  </si>
+  <si>
+    <t>benachbart, Nachbar-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">las ruinas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amerika </t>
+  </si>
+  <si>
+    <t>diferenciador/a</t>
+  </si>
+  <si>
+    <t>differenzierend, unterscheidend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la región </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region, Gebiet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">justificar </t>
+  </si>
+  <si>
+    <t>rechtfertigen</t>
+  </si>
+  <si>
+    <t>el/la administrador/a</t>
+  </si>
+  <si>
+    <t>Geschäftsführer/in, Verwalter/in, Manager/in</t>
+  </si>
+  <si>
+    <t>el interés (por)</t>
+  </si>
+  <si>
+    <t>Interesse (an)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la obra </t>
+  </si>
+  <si>
+    <t>Werk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el/la visitante </t>
+  </si>
+  <si>
+    <t>Besucher/in</t>
+  </si>
+  <si>
+    <t>el/la turista</t>
+  </si>
+  <si>
+    <t>Tourist/in</t>
+  </si>
+  <si>
+    <t>el mirador</t>
+  </si>
+  <si>
+    <t>Aussichtspunkt</t>
+  </si>
+  <si>
+    <t>lleno/-a</t>
+  </si>
+  <si>
+    <t>voll</t>
+  </si>
+  <si>
+    <t>el fracaso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheitern, Misserfolg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el escándalo </t>
+  </si>
+  <si>
+    <t>Skandal, Ärgernis</t>
+  </si>
+  <si>
+    <t>el/la emperador/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaiser/in </t>
+  </si>
+  <si>
+    <t>quinto/-a (in röm. Ziffern: V)</t>
+  </si>
+  <si>
+    <t>fünfte/r/s</t>
+  </si>
+  <si>
+    <t>ordenar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">befehlen, anordnen </t>
+  </si>
+  <si>
+    <t>construir (v)</t>
+  </si>
+  <si>
+    <t>bauen, errichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el océano </t>
+  </si>
+  <si>
+    <t>Ozean</t>
+  </si>
+  <si>
+    <t>el Atlántico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantik </t>
+  </si>
+  <si>
+    <t>verstreichen, vergehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el /la director/a </t>
+  </si>
+  <si>
+    <t>Leiter/in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el /la diplomático/-a </t>
+  </si>
+  <si>
+    <t>Diplomat/in</t>
+  </si>
+  <si>
+    <t>el/la empresario/-a</t>
+  </si>
+  <si>
+    <t>Unternehmer/in</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>Ägypten</t>
+  </si>
+  <si>
+    <t>la ruina</t>
+  </si>
+  <si>
+    <t>Ruin, Verderben</t>
+  </si>
+  <si>
+    <t>el /la accionista</t>
+  </si>
+  <si>
+    <t>Aktionär/in</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Vereinigte Staaten, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firmar </t>
+  </si>
+  <si>
+    <t>unterschreiben</t>
+  </si>
+  <si>
+    <t>el tratado</t>
+  </si>
+  <si>
+    <t>Vertrag, Pakt</t>
+  </si>
+  <si>
+    <t>el acuerdo</t>
+  </si>
+  <si>
+    <t>Übereinkommen, Vereinbarung</t>
+  </si>
+  <si>
+    <t>Recht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguir (i) con </t>
+  </si>
+  <si>
+    <t>fortfahren, weitermachen</t>
+  </si>
+  <si>
+    <t>la construcción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bau, Baukunst </t>
+  </si>
+  <si>
+    <t>explotar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betreiben, nutzen </t>
+  </si>
+  <si>
+    <t>futuro/-a</t>
+  </si>
+  <si>
+    <t>(zu)künftig</t>
+  </si>
+  <si>
+    <t>finalmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schließlich, endlich </t>
+  </si>
+  <si>
+    <t>seit</t>
+  </si>
+  <si>
+    <t>Republik</t>
+  </si>
+  <si>
+    <t>el / la responsable</t>
+  </si>
+  <si>
+    <t>Verantwortliche/r</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>doble</t>
+  </si>
+  <si>
+    <t>el servicio de limpieza</t>
+  </si>
+  <si>
+    <t>el servicio de lavandería</t>
+  </si>
+  <si>
+    <t>el metro cuadrado (m2)</t>
+  </si>
+  <si>
+    <t>la mascota</t>
+  </si>
+  <si>
+    <t>la luz</t>
+  </si>
+  <si>
+    <t>amueblado/-a</t>
+  </si>
+  <si>
+    <t>completamente</t>
+  </si>
+  <si>
+    <t>equipado/-a</t>
+  </si>
+  <si>
+    <t>el aire acondicionado</t>
+  </si>
+  <si>
+    <t>la calefacción</t>
+  </si>
+  <si>
+    <t>preferentemente</t>
+  </si>
+  <si>
+    <t>a ... minutos a pie</t>
+  </si>
+  <si>
+    <t>Student/in</t>
+  </si>
+  <si>
+    <t>Studentenwohnheim</t>
+  </si>
+  <si>
+    <t>Einzimmerwohnung</t>
+  </si>
+  <si>
+    <t>äußere/r/s, Außen-, hier: zur Straße gelegen</t>
+  </si>
+  <si>
+    <t>Internet-Zugang</t>
+  </si>
+  <si>
+    <t>Kriterium</t>
+  </si>
+  <si>
+    <t>Quadratmeter</t>
+  </si>
+  <si>
+    <t>Haustier</t>
+  </si>
+  <si>
+    <t>Besitzer/in, Eigentümer/in</t>
+  </si>
+  <si>
+    <t>Innenstadtbereich</t>
+  </si>
+  <si>
+    <t>geräumig</t>
+  </si>
+  <si>
+    <t>Schlafzimmer</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>Kaution</t>
+  </si>
+  <si>
+    <t>Licht, hier: Strom</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Ausstattung</t>
+  </si>
+  <si>
+    <t>möbliert</t>
+  </si>
+  <si>
+    <t>Klimaanlage</t>
+  </si>
+  <si>
+    <t>Heizung</t>
+  </si>
+  <si>
+    <t>... Minuten zu Fuß entfernt</t>
+  </si>
+  <si>
+    <t>la Cartuja</t>
+  </si>
+  <si>
+    <t>la garantía</t>
+  </si>
+  <si>
+    <t>el aparato</t>
+  </si>
+  <si>
+    <t>dibuja (inf: dibujar)</t>
+  </si>
+  <si>
+    <t>mudarse</t>
+  </si>
+  <si>
+    <t>coincidir</t>
+  </si>
+  <si>
+    <t>alquilar</t>
+  </si>
+  <si>
+    <t>incluye (inf: incluir)</t>
+  </si>
+  <si>
+    <t>el precio del alquiler</t>
+  </si>
+  <si>
+    <t>amueblar</t>
+  </si>
+  <si>
+    <t>sin gastar</t>
+  </si>
+  <si>
+    <t>el metal</t>
+  </si>
+  <si>
+    <t>u (vor o-, ho-)</t>
+  </si>
+  <si>
+    <t>la medida</t>
+  </si>
+  <si>
+    <t>el color</t>
+  </si>
+  <si>
+    <t>el centímetro (cm)</t>
+  </si>
+  <si>
+    <t>el colchón</t>
+  </si>
+  <si>
+    <t>guardar</t>
+  </si>
+  <si>
+    <t>la mesa de cristal</t>
+  </si>
+  <si>
+    <t>redondo/-a</t>
+  </si>
+  <si>
+    <t>la silla</t>
+  </si>
+  <si>
+    <t>el mercadillo</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>el cartón</t>
+  </si>
+  <si>
+    <t>Studieniahr</t>
+  </si>
+  <si>
+    <t>Gemeinschaftskosten</t>
+  </si>
+  <si>
+    <t>Garantie</t>
+  </si>
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t>zeichne</t>
+  </si>
+  <si>
+    <t>umziehen</t>
+  </si>
+  <si>
+    <t>überprüfe</t>
+  </si>
+  <si>
+    <t>übereinstimmen</t>
+  </si>
+  <si>
+    <t>antworte</t>
+  </si>
+  <si>
+    <t>man muss</t>
+  </si>
+  <si>
+    <t>überweisen</t>
+  </si>
+  <si>
+    <t>den Vertrag unterschreiben</t>
+  </si>
+  <si>
+    <t>Blatt</t>
+  </si>
+  <si>
+    <t>übergib, reiche</t>
+  </si>
+  <si>
+    <t>Nachbar/in</t>
+  </si>
+  <si>
+    <t>Zusammenleben</t>
+  </si>
+  <si>
+    <t>mieten</t>
+  </si>
+  <si>
+    <t>beziehe mit ein, führe mit auf</t>
+  </si>
+  <si>
+    <t>ohne (viel) Geld auszugeben</t>
+  </si>
+  <si>
+    <t>Haushaltsgerät</t>
+  </si>
+  <si>
+    <t>Waschmaschine</t>
+  </si>
+  <si>
+    <t>Wohngemeinschaft (WG)</t>
+  </si>
+  <si>
+    <t>Regal</t>
+  </si>
+  <si>
+    <t>schwer</t>
+  </si>
+  <si>
+    <t>Teppich</t>
+  </si>
+  <si>
+    <t>Maß</t>
+  </si>
+  <si>
+    <t>Bett</t>
+  </si>
+  <si>
+    <t>Zentimeter</t>
+  </si>
+  <si>
+    <t>Glastisch</t>
+  </si>
+  <si>
+    <t>rund</t>
+  </si>
+  <si>
+    <t>transportieren</t>
+  </si>
+  <si>
+    <t>Stuhl</t>
+  </si>
+  <si>
+    <t>Balkon</t>
+  </si>
+  <si>
+    <t>Plastik, Kunststoff</t>
+  </si>
+  <si>
+    <t>Holz</t>
+  </si>
+  <si>
+    <t>(Floh-)Markt</t>
+  </si>
+  <si>
+    <t>blau</t>
+  </si>
+  <si>
+    <t>Pappe, Karton</t>
+  </si>
+  <si>
+    <t>viejo/-a</t>
+  </si>
+  <si>
+    <t>decorar</t>
+  </si>
+  <si>
+    <t>lavar los platos</t>
+  </si>
+  <si>
+    <t>describe (inf: describir)</t>
+  </si>
+  <si>
+    <t>de segunda mano</t>
+  </si>
+  <si>
+    <t>el / la autor/a</t>
+  </si>
+  <si>
+    <t>Me los quedo todos.</t>
+  </si>
+  <si>
+    <t>el uso</t>
+  </si>
+  <si>
+    <t>el pronombre</t>
+  </si>
+  <si>
+    <t>la regla</t>
+  </si>
+  <si>
+    <t>el (pronombre) directo</t>
+  </si>
+  <si>
+    <t>independizarse</t>
+  </si>
+  <si>
+    <t>contrastar</t>
+  </si>
+  <si>
+    <t>positivo/-a</t>
+  </si>
+  <si>
+    <t>pues bien</t>
+  </si>
+  <si>
+    <t>enfadarse</t>
+  </si>
+  <si>
+    <t>cantar</t>
+  </si>
+  <si>
+    <t>administrar</t>
+  </si>
+  <si>
+    <t>antes</t>
+  </si>
+  <si>
+    <t>entre semana</t>
+  </si>
+  <si>
+    <t>esperar</t>
+  </si>
+  <si>
+    <t>estar (yo estoy) ahí</t>
+  </si>
+  <si>
+    <t>especialmente</t>
+  </si>
+  <si>
+    <t>cualquier/a</t>
+  </si>
+  <si>
+    <t>sin dar explicaciones</t>
+  </si>
+  <si>
+    <t>¿Desde cuándo?</t>
+  </si>
+  <si>
+    <t>entrar</t>
+  </si>
+  <si>
+    <t>poner (g) la lavadora</t>
+  </si>
+  <si>
+    <t>marroquí</t>
+  </si>
+  <si>
+    <t>inglés/-esa</t>
+  </si>
+  <si>
+    <t>el ático</t>
+  </si>
+  <si>
+    <t>el sótano</t>
+  </si>
+  <si>
+    <t>ponerse (g) de acuerdo</t>
+  </si>
+  <si>
+    <t>Autor/in, Schriftsteller/in</t>
+  </si>
+  <si>
+    <t>Ich nehme alle.</t>
+  </si>
+  <si>
+    <t>Gebrauch</t>
+  </si>
+  <si>
+    <t>Pronomen</t>
+  </si>
+  <si>
+    <t>Regel</t>
+  </si>
+  <si>
+    <t>Dativpronomen</t>
+  </si>
+  <si>
+    <t>Nachteil</t>
+  </si>
+  <si>
+    <t>Ernährung</t>
+  </si>
+  <si>
+    <t>gegenüberstellen</t>
+  </si>
+  <si>
+    <t>positiv</t>
+  </si>
+  <si>
+    <t>ohne weitere Erklärungen</t>
+  </si>
+  <si>
+    <t>Seit wann?</t>
+  </si>
+  <si>
+    <t>Hausarbeit</t>
+  </si>
+  <si>
+    <t>Imperfekt</t>
+  </si>
+  <si>
+    <t>Latino-, lateinisch</t>
+  </si>
+  <si>
+    <t>englisch</t>
+  </si>
+  <si>
+    <t>Dachwohnung</t>
+  </si>
+  <si>
+    <t>Keller</t>
+  </si>
+  <si>
+    <t>América Latina</t>
+  </si>
+  <si>
+    <t>residir</t>
+  </si>
+  <si>
+    <t>la población</t>
+  </si>
+  <si>
+    <t>el carnaval</t>
+  </si>
+  <si>
+    <t>la sede</t>
+  </si>
+  <si>
+    <t>el Mercosur</t>
+  </si>
+  <si>
+    <t>el/la protagonista</t>
+  </si>
+  <si>
+    <t>uruguayo/-a</t>
+  </si>
+  <si>
+    <t>el movimiento</t>
+  </si>
+  <si>
+    <t>la cooperativa de viviendas</t>
+  </si>
+  <si>
+    <t>mutuo/-a</t>
+  </si>
+  <si>
+    <t>sencillo/-a</t>
+  </si>
+  <si>
+    <t>organizarse</t>
+  </si>
+  <si>
+    <t>democrático/-a</t>
+  </si>
+  <si>
+    <t>entre todos</t>
+  </si>
+  <si>
+    <t>cooperativo/-a</t>
+  </si>
+  <si>
+    <t>la asamblea</t>
+  </si>
+  <si>
+    <t>el diseño</t>
+  </si>
+  <si>
+    <t>vecinal</t>
+  </si>
+  <si>
+    <t>eine Rolle spielen</t>
+  </si>
+  <si>
+    <t>Masterarbeit</t>
+  </si>
+  <si>
+    <t>den Abfall hinausbringen</t>
+  </si>
+  <si>
+    <t>Hauptstadt</t>
+  </si>
+  <si>
+    <t>Karneval, Fasching</t>
+  </si>
+  <si>
+    <t>Sitz</t>
+  </si>
+  <si>
+    <t>Gemeinsamer Markt Südamerikas</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Dezember</t>
+  </si>
+  <si>
+    <t>Hauptdarsteller, Hauptperson</t>
+  </si>
+  <si>
+    <t>Selbstverwaltung</t>
+  </si>
+  <si>
+    <t>Solidarität</t>
+  </si>
+  <si>
+    <t>Genossenschaftsbewegung</t>
+  </si>
+  <si>
+    <t>uruguayisch</t>
+  </si>
+  <si>
+    <t>Bewegung</t>
+  </si>
+  <si>
+    <t>gegenseitig</t>
+  </si>
+  <si>
+    <t>einfach</t>
+  </si>
+  <si>
+    <t>sich zusammenschließen</t>
+  </si>
+  <si>
+    <t>demokratisch</t>
+  </si>
+  <si>
+    <t>gemeinsam</t>
+  </si>
+  <si>
+    <t>Kredit, Darlehen</t>
+  </si>
+  <si>
+    <t>Versammlung</t>
+  </si>
+  <si>
+    <t>Genossenschaftler/in</t>
+  </si>
+  <si>
+    <t>bewohnen</t>
+  </si>
+  <si>
+    <t>Bildung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el/la universitario/-a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la sala de ocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la conexión a Internet </t>
+  </si>
+  <si>
+    <t>el criterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el /la propietario/-a </t>
+  </si>
+  <si>
+    <t>la zona centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amplio/-a </t>
+  </si>
+  <si>
+    <t>la zona comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualmente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la comunicación </t>
+  </si>
+  <si>
+    <t>la característica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el dormitorio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminoso/-a </t>
+  </si>
+  <si>
+    <t>la estancia mínima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admitir </t>
+  </si>
+  <si>
+    <t>la fianza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el gas </t>
+  </si>
+  <si>
+    <t>el equipamiento</t>
+  </si>
+  <si>
+    <t>Einzel-</t>
+  </si>
+  <si>
+    <t>Doppel-</t>
+  </si>
+  <si>
+    <t>la residencia universitaria</t>
+  </si>
+  <si>
+    <t>Reinigungsservice, Reinigungsdienst</t>
+  </si>
+  <si>
+    <t>Wäscheservice, Wäschereidienst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemeinschaftsraum </t>
+  </si>
+  <si>
+    <t>kostenfreier Parkplatz</t>
+  </si>
+  <si>
+    <t>el aparcamiento gratuito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschäftsviertel, Einkaufsstraßen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zurzeit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verständigung, Umgang </t>
+  </si>
+  <si>
+    <t>Kennzeichen, Eigenschaft, Merkmal</t>
+  </si>
+  <si>
+    <t>zulassen, erlauben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindestaufenthalt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">komplett </t>
+  </si>
+  <si>
+    <t>ausgestattet</t>
+  </si>
+  <si>
+    <t>in erster Linie, vorzugsweise</t>
+  </si>
+  <si>
+    <t>ehemaliges Kartäuserkloster in Sevilla</t>
+  </si>
+  <si>
+    <t>el gasto de comunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el año académico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparat, Gerät </t>
+  </si>
+  <si>
+    <t>senken</t>
+  </si>
+  <si>
+    <t>la temperatura</t>
+  </si>
+  <si>
+    <t>comprueba (inf: comprobar)</t>
+  </si>
+  <si>
+    <t>responde (inf: responder)</t>
+  </si>
+  <si>
+    <t>transferir (ie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hay (haber) que + inf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">firmar el contrato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la hoja </t>
+  </si>
+  <si>
+    <t>pasa (inf: pasar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la vecino/-a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">intercambiar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el mueble </t>
+  </si>
+  <si>
+    <t>el electrodoméstico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la decoración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mietpreis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">innere/r/s, Innen-, hier: nicht zur Straße gelegen </t>
+  </si>
+  <si>
+    <t>möblieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">austauschen </t>
+  </si>
+  <si>
+    <t>Möbel(stück)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dekoration, Einrichtung </t>
+  </si>
+  <si>
+    <t>Deckenlampe, -leuchte</t>
+  </si>
+  <si>
+    <t>la lámpara de techo</t>
+  </si>
+  <si>
+    <t>la mesita de noche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachttisch </t>
+  </si>
+  <si>
+    <t>funktionieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funcionar </t>
+  </si>
+  <si>
+    <t>la lavadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el piso compartido </t>
+  </si>
+  <si>
+    <t>la estantería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pesado/-a </t>
+  </si>
+  <si>
+    <t>la alfombra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claro/-a </t>
+  </si>
+  <si>
+    <t>la cama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el balcón </t>
+  </si>
+  <si>
+    <t>el plástico</t>
+  </si>
+  <si>
+    <t>la madera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farbe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matratze </t>
+  </si>
+  <si>
+    <t>aufbewahren, verstauen</t>
+  </si>
+  <si>
+    <t>dienen, nützen, hilfreich sein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ligero/-a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">einrichten, dekorieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">das Geschirr spülen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beschreibe </t>
+  </si>
+  <si>
+    <t>aus zweiter Hand, gebraucht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la desventaia </t>
+  </si>
+  <si>
+    <t>la alimentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lleno/-a </t>
+  </si>
+  <si>
+    <t>la magia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olvidar </t>
+  </si>
+  <si>
+    <t>el chocolate</t>
+  </si>
+  <si>
+    <t>el centro de atención</t>
+  </si>
+  <si>
+    <t>soñar (ue) (con)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con toda libertad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">las tareas de la casa pl </t>
+  </si>
+  <si>
+    <t>el imperfecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tirar la basura </t>
+  </si>
+  <si>
+    <t>recoger la mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">representar un papel </t>
+  </si>
+  <si>
+    <t>el trabajo de fin de máster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sacar la basura </t>
+  </si>
+  <si>
+    <t>la capital</t>
+  </si>
+  <si>
+    <t>el hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la autogestión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la solidaridad </t>
+  </si>
+  <si>
+    <t>el cooperativismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">técnico/-a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el terreno </t>
+  </si>
+  <si>
+    <t>el crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tener (g, ¡e) derecho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a pedir (i) permiso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el /la cooperativista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocupar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el sorteo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">corresponder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">día a día </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la educación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el consumo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limitarse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a la propiedad social </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sino que </t>
+  </si>
+  <si>
+    <t>promover (ue)</t>
+  </si>
+  <si>
+    <t>el (pronombre) indirecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akkusativpronomen </t>
+  </si>
+  <si>
+    <t>selbstständig werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also gut, nun gut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sich ärgern, böse werden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">singen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verwalten </t>
+  </si>
+  <si>
+    <t>früher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magie, Zauberei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unter der Woche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schokolade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(er)warten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">da sein </t>
+  </si>
+  <si>
+    <t xml:space="preserve">besonders, überwiegend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protestar </t>
+  </si>
+  <si>
+    <t>de maravilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sich beschweren, schimpfen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wunderbar, glänzend, super </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittelpunkt, Fokus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">träumen (von) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitbringen </t>
+  </si>
+  <si>
+    <t>irgendeine/r/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eintreten, hineingehen </t>
+  </si>
+  <si>
+    <t>völlig frei</t>
+  </si>
+  <si>
+    <t>die Waschmaschine anstellen, Wäsche waschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abfall entsorgen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">den Tisch abräumen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(sich) verändern </t>
+  </si>
+  <si>
+    <t>la vivienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wohnung, Unterkunft </t>
+  </si>
+  <si>
+    <t>marrokanisch</t>
+  </si>
+  <si>
+    <t>sich absprechen, sich einigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateinamerika </t>
+  </si>
+  <si>
+    <t>wohnen, ansässig sein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krankenhaus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">central </t>
+  </si>
+  <si>
+    <t>la parte</t>
+  </si>
+  <si>
+    <t>zentral, Haupt-</t>
+  </si>
+  <si>
+    <t>Teil</t>
+  </si>
+  <si>
+    <t>Wohnungsbaugenossenschaft</t>
+  </si>
+  <si>
+    <t>Gelände, Grundstück</t>
+  </si>
+  <si>
+    <t>genossenschaftlich, Genossenschafts-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technisch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design, Gestaltung </t>
+  </si>
+  <si>
+    <t>durchführen, einbringen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recht haben </t>
+  </si>
+  <si>
+    <t>auf um Erlaubnis bitten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verlosung, Auslosung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zustehen, zukommen </t>
+  </si>
+  <si>
+    <t>tagtäglich, Tag für Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbrauch, Konsum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sich beschränken auf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gemeinschaftlicher Besitz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sondern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fördern </t>
+  </si>
+  <si>
+    <t>nachbarschaflich, Gemeinde-</t>
+  </si>
+  <si>
+    <t>la frontera</t>
+  </si>
+  <si>
+    <t>tolerante</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>añade (inf: añadir)</t>
+  </si>
+  <si>
+    <t>ampliar el CV</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>África</t>
+  </si>
+  <si>
+    <t>Oceanía</t>
+  </si>
+  <si>
+    <t>el límite</t>
+  </si>
+  <si>
+    <t>Inglaterra</t>
+  </si>
+  <si>
+    <t>el paso</t>
+  </si>
+  <si>
+    <t>el proceso</t>
+  </si>
+  <si>
+    <t>la plaza</t>
+  </si>
+  <si>
+    <t>presentar una reclamación</t>
+  </si>
+  <si>
+    <t>provisional</t>
+  </si>
+  <si>
+    <t>presentar la solicitud</t>
+  </si>
+  <si>
+    <t>definitivo/-a</t>
+  </si>
+  <si>
+    <t>el contrato de aprendizaje</t>
+  </si>
+  <si>
+    <t>económico/-a</t>
+  </si>
+  <si>
+    <t>adjuntar</t>
+  </si>
+  <si>
+    <t>la carta de motivación</t>
+  </si>
+  <si>
+    <t>la motivación</t>
+  </si>
+  <si>
+    <t>Bruselas</t>
+  </si>
+  <si>
+    <t>Cantabria</t>
+  </si>
+  <si>
+    <t>Estimados Sras. y Sres.</t>
+  </si>
+  <si>
+    <t>Grenze</t>
+  </si>
+  <si>
+    <t>pünktlich</t>
+  </si>
+  <si>
+    <t>Waffeln</t>
+  </si>
+  <si>
+    <t>Nutzen, Vorteil</t>
+  </si>
+  <si>
+    <t>Asien</t>
+  </si>
+  <si>
+    <t>Afrika</t>
+  </si>
+  <si>
+    <t>Ozeanien</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Angabe</t>
+  </si>
+  <si>
+    <t>Erasmus von Rotterdam</t>
+  </si>
+  <si>
+    <t>Philosoph/in</t>
+  </si>
+  <si>
+    <t>Schriftsteller/in</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Erasmus-Student/in</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Lösung</t>
+  </si>
+  <si>
+    <t>Schritt</t>
+  </si>
+  <si>
+    <t>Verfahren, Vorgang</t>
+  </si>
+  <si>
+    <t>Bewerbungsschreiben, Motivationsschreiben</t>
+  </si>
+  <si>
+    <t>Bescheinigung, Zertifikat</t>
+  </si>
+  <si>
+    <t>Brüssel</t>
+  </si>
+  <si>
+    <t>Kantabrien</t>
+  </si>
+  <si>
+    <t>Sehr geehrte Damen und Herren (Brief)</t>
+  </si>
+  <si>
+    <t>gegenwärtig, zur Zeit</t>
+  </si>
+  <si>
+    <t>Gegenwart</t>
+  </si>
+  <si>
+    <t>la perspectiva</t>
+  </si>
+  <si>
+    <t>directamente</t>
+  </si>
+  <si>
+    <t>perfeccionar</t>
+  </si>
+  <si>
+    <t>atentamente</t>
+  </si>
+  <si>
+    <t>haced (inf: hacer)</t>
+  </si>
+  <si>
+    <t>corregir (i)</t>
+  </si>
+  <si>
+    <t>la burocracia</t>
+  </si>
+  <si>
+    <t>Florencia</t>
+  </si>
+  <si>
+    <t>la esperanza (de)</t>
+  </si>
+  <si>
+    <t>contactar</t>
+  </si>
+  <si>
+    <t>caótico/-a</t>
+  </si>
+  <si>
+    <t>enseguida</t>
+  </si>
+  <si>
+    <t>acostumbrarse</t>
+  </si>
+  <si>
+    <t>darse (vo doy) cuenta (de)</t>
+  </si>
+  <si>
+    <t>ser un paseo</t>
+  </si>
+  <si>
+    <t>el paseo</t>
+  </si>
+  <si>
+    <t>seguir (j) las clases</t>
+  </si>
+  <si>
+    <t>por suerte</t>
+  </si>
+  <si>
+    <t>terminar con los trámites</t>
+  </si>
+  <si>
+    <t>terminar con</t>
+  </si>
+  <si>
+    <t>el/la esposo/-a (LA)</t>
+  </si>
+  <si>
+    <t>platicar (LA)</t>
+  </si>
+  <si>
+    <t>postularse (LA)</t>
+  </si>
+  <si>
+    <t>Bürokratie</t>
+  </si>
+  <si>
+    <t>Florenz</t>
+  </si>
+  <si>
+    <t>Bewerber/in, Kandidat/in</t>
+  </si>
+  <si>
+    <t>Alptraum</t>
+  </si>
+  <si>
+    <t>Hoffnung (auf)</t>
+  </si>
+  <si>
+    <t>am Anfang</t>
+  </si>
+  <si>
+    <t>chaotisch</t>
+  </si>
+  <si>
+    <t>bemerken</t>
+  </si>
+  <si>
+    <t>ein Kinderspiel sein; kinderleicht sein</t>
+  </si>
+  <si>
+    <t>hinter sich bringen, erledigen</t>
+  </si>
+  <si>
+    <t>Formalität, Verfahren</t>
+  </si>
+  <si>
+    <t>Abschied</t>
+  </si>
+  <si>
+    <t>Abschied nehmen</t>
+  </si>
+  <si>
+    <t>Element, Bestandteil</t>
+  </si>
+  <si>
+    <t>Stiftung</t>
+  </si>
+  <si>
+    <t>Werbung, Marketing</t>
+  </si>
+  <si>
+    <t>Auswahl</t>
+  </si>
+  <si>
+    <t>hart</t>
+  </si>
+  <si>
+    <t>erreichen, erlangen</t>
+  </si>
+  <si>
+    <t>el resumen</t>
+  </si>
+  <si>
+    <t>aprobar (ue)</t>
+  </si>
+  <si>
+    <t>creativo/-a</t>
+  </si>
+  <si>
+    <t>el currículum</t>
+  </si>
+  <si>
+    <t>nacer (zc)</t>
+  </si>
+  <si>
+    <t>innovar</t>
+  </si>
+  <si>
+    <t>la cualidad</t>
+  </si>
+  <si>
+    <t>polifacético/-a</t>
+  </si>
+  <si>
+    <t>emprendedor/a</t>
+  </si>
+  <si>
+    <t>saber (yo sé) tratar con gente</t>
+  </si>
+  <si>
+    <t>la iniciativa</t>
+  </si>
+  <si>
+    <t>el interés (en)</t>
+  </si>
+  <si>
+    <t>la capacidad de adaptarse</t>
+  </si>
+  <si>
+    <t>el CV (curriculum vitae)</t>
+  </si>
+  <si>
+    <t>el/la entrevistador/a</t>
+  </si>
+  <si>
+    <t>aportar</t>
+  </si>
+  <si>
+    <t>los EE. UU. (Estados Unidos)</t>
+  </si>
+  <si>
+    <t>hablar en público</t>
+  </si>
+  <si>
+    <t>abrir la mente</t>
+  </si>
+  <si>
+    <t>adquirir (ie)</t>
+  </si>
+  <si>
+    <t>verändere</t>
+  </si>
+  <si>
+    <t>Zusammenfassung</t>
+  </si>
+  <si>
+    <t>bestehen (Prüfung)</t>
+  </si>
+  <si>
+    <t>kreativ</t>
+  </si>
+  <si>
+    <t>können</t>
+  </si>
+  <si>
+    <t>beenden, abschließen</t>
+  </si>
+  <si>
+    <t>teamfähig sein</t>
+  </si>
+  <si>
+    <t>die Übrigen</t>
+  </si>
+  <si>
+    <t>Können, Tüchtigkeit</t>
+  </si>
+  <si>
+    <t>Neuerungen einführen</t>
+  </si>
+  <si>
+    <t>Grafikdesign</t>
+  </si>
+  <si>
+    <t>Typografie</t>
+  </si>
+  <si>
+    <t>Zeichnung, Zeichnen</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>redaktionelle Fotografie</t>
+  </si>
+  <si>
+    <t>Webdesign</t>
+  </si>
+  <si>
+    <t>Aus-, Fortbildung</t>
+  </si>
+  <si>
+    <t>Designer/in</t>
+  </si>
+  <si>
+    <t>Selbstständige/r</t>
+  </si>
+  <si>
+    <t>Kompetenz</t>
+  </si>
+  <si>
+    <t>mit Problemen umgehen können</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Anpassungsfähigkeit</t>
+  </si>
+  <si>
+    <t>zwischenmenschlich</t>
+  </si>
+  <si>
+    <t>Kenntnisse haben</t>
+  </si>
+  <si>
+    <t>Kenntnis, Wissen</t>
+  </si>
+  <si>
+    <t>Mir gelingt es (nicht).</t>
+  </si>
+  <si>
+    <t>schwerfallen</t>
+  </si>
+  <si>
+    <t>Lebenslauf</t>
+  </si>
+  <si>
+    <t>USA (Vereinigte Staaten)</t>
+  </si>
+  <si>
+    <t>Konflikte lösen</t>
+  </si>
+  <si>
+    <t>erzähle</t>
+  </si>
+  <si>
+    <t>Erfahrungen sammeln</t>
+  </si>
+  <si>
+    <t>erlangen, erwerben</t>
+  </si>
+  <si>
+    <t>recomendar (je)</t>
+  </si>
+  <si>
+    <t>resolver (ue) una situación</t>
+  </si>
+  <si>
+    <t>la muralla</t>
+  </si>
+  <si>
+    <t>colonial</t>
+  </si>
+  <si>
+    <t>el paraíso</t>
+  </si>
+  <si>
+    <t>tropical</t>
+  </si>
+  <si>
+    <t>durante décadas</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>la moneda</t>
+  </si>
+  <si>
+    <t>estadounidense</t>
+  </si>
+  <si>
+    <t>el préstamo</t>
+  </si>
+  <si>
+    <t>ello</t>
+  </si>
+  <si>
+    <t>el coste</t>
+  </si>
+  <si>
+    <t>bajo/-a</t>
+  </si>
+  <si>
+    <t>relativamente</t>
+  </si>
+  <si>
+    <t>el ranking</t>
+  </si>
+  <si>
+    <t>empfehlen</t>
+  </si>
+  <si>
+    <t>(Stadt-)Mauer</t>
+  </si>
+  <si>
+    <t>Hafen</t>
+  </si>
+  <si>
+    <t>Kreuzfahrtschiff</t>
+  </si>
+  <si>
+    <t>Karibik, Karibisches Meer</t>
+  </si>
+  <si>
+    <t>Formel</t>
+  </si>
+  <si>
+    <t>seit (+ Zeitraum)</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>US-amerikanisch</t>
+  </si>
+  <si>
+    <t>Visum</t>
+  </si>
+  <si>
+    <t>zweisprachig</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Zulassung, Akkreditierung</t>
+  </si>
+  <si>
+    <t>Internationalisierung</t>
+  </si>
+  <si>
+    <t>Rangliste, Ranking</t>
+  </si>
+  <si>
+    <t>zur Zeit, derzeit, momentan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puntual </t>
+  </si>
+  <si>
+    <t>el gofre</t>
+  </si>
+  <si>
+    <t>crecer (z) como persona</t>
+  </si>
+  <si>
+    <t>el beneficio</t>
+  </si>
+  <si>
+    <t>el extranjero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romper con </t>
+  </si>
+  <si>
+    <t>el convenio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el test </t>
+  </si>
+  <si>
+    <t>el dato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erasmo de Rotterdam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el /la filósofo/-a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la escritor/a </t>
+  </si>
+  <si>
+    <t>el máximo</t>
+  </si>
+  <si>
+    <t>de media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin límite </t>
+  </si>
+  <si>
+    <t>la solución</t>
+  </si>
+  <si>
+    <t xml:space="preserve">especificar </t>
+  </si>
+  <si>
+    <t>el certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en la actualidad </t>
+  </si>
+  <si>
+    <t>la actualidad</t>
+  </si>
+  <si>
+    <t>als Person wachsen, die Persönlichkeit entwickeln</t>
+  </si>
+  <si>
+    <t>flexibel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolerant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausland </t>
+  </si>
+  <si>
+    <t>füge hinzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">den Lebenslauf aufwerten, interessanter machen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(zer-, unter-)brechen </t>
+  </si>
+  <si>
+    <t>Vereinbarung, Abkommen</t>
+  </si>
+  <si>
+    <t>Maximum, Höchst-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unbegrenzt </t>
+  </si>
+  <si>
+    <t>im Schnitt, durchschnittlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenze </t>
+  </si>
+  <si>
+    <t>populär, beliebt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studienplatz </t>
+  </si>
+  <si>
+    <t>el /la estudiante erasmus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reklamieren, eine Beschwerde vorbringen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vorläufig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sich bewerben, einen Antrag stellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">endgültig, definitiv </t>
+  </si>
+  <si>
+    <t>Learning Agreement</t>
+  </si>
+  <si>
+    <t>beilegen, beifügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wirtschaftlich, finanziell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivation </t>
+  </si>
+  <si>
+    <t>spezifizieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el prestigio </t>
+  </si>
+  <si>
+    <t>ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el método </t>
+  </si>
+  <si>
+    <t>ya que</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la profesional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la empresa líder </t>
+  </si>
+  <si>
+    <t>considerar (como)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la red de contactos </t>
+  </si>
+  <si>
+    <t>con el fin de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la salida profesional </t>
+  </si>
+  <si>
+    <t>por último</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con el objetivo de </t>
+  </si>
+  <si>
+    <t>la certeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la candidato/-a </t>
+  </si>
+  <si>
+    <t>la pesadilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptarse </t>
+  </si>
+  <si>
+    <t>al principio</t>
+  </si>
+  <si>
+    <t>el/la (estudiante) erasmus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el trámite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la despedida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decir (g, i) adiós </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la parte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el elemento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la fundación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la publicidad </t>
+  </si>
+  <si>
+    <t>la selección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duro/-a </t>
+  </si>
+  <si>
+    <t>conseguir (j)</t>
+  </si>
+  <si>
+    <t>modifica (inf: modificar)</t>
+  </si>
+  <si>
+    <t>combina (inf: combinar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a los 24 años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminar de + inf </t>
+  </si>
+  <si>
+    <t>saber (yo sé) trabajar en equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los / las demás </t>
+  </si>
+  <si>
+    <t>la habilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el diseño gráfico </t>
+  </si>
+  <si>
+    <t>la tipografía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el dibujo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el packaging </t>
+  </si>
+  <si>
+    <t>la fotografía editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el diseño web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el / la diseñador/a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el /la autónomo/-a </t>
+  </si>
+  <si>
+    <t>la competencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interpersonal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tener (g, ie) conocimientos de </t>
+  </si>
+  <si>
+    <t>el conocimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se me da bien / mal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el desarrollo personal </t>
+  </si>
+  <si>
+    <t>de niño/-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolver (ue) conflictos </t>
+  </si>
+  <si>
+    <t>cuenta (inf: contar)</t>
+  </si>
+  <si>
+    <t>adquirir (je) experiencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el ingreso per cápita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el puerto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el crucero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el (mar) Caribe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la década </t>
+  </si>
+  <si>
+    <t>la fórmula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promocionar </t>
+  </si>
+  <si>
+    <t>por todo el mundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desde hace </t>
+  </si>
+  <si>
+    <t>atraer (yo atraigo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrecho/-a </t>
+  </si>
+  <si>
+    <t>asociado/-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el visado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilingüe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el estándar </t>
+  </si>
+  <si>
+    <t>la acreditación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el potencial </t>
+  </si>
+  <si>
+    <t>la internacionalización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la importancia </t>
+  </si>
+  <si>
+    <t>de momento</t>
+  </si>
+  <si>
+    <t>Prestige, Ansehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belegen, studieren </t>
+  </si>
+  <si>
+    <t>Perspektive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">direkt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachmann/-frau, Profi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">führendes Unternehmen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">halten für, betrachten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beziehungsnetzwerk </t>
+  </si>
+  <si>
+    <t>um ... zu, mit dem Ziel, zu ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berufsaussicht </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zuletzt, letztendlich, abschließend </t>
+  </si>
+  <si>
+    <t>vervollkommnen</t>
+  </si>
+  <si>
+    <t>zwecks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit freundlichen Grüßen (Brief) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewissheit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">macht </t>
+  </si>
+  <si>
+    <t>korrigieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontakt aufnehmen </t>
+  </si>
+  <si>
+    <t>sich anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gleich danach </t>
+  </si>
+  <si>
+    <t>sich gewöhnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaziergang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dem Unterricht folgen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zum Glück </t>
+  </si>
+  <si>
+    <t>die Formalitäten erledigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehemann/-frau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sich unterhalten, plaudern </t>
+  </si>
+  <si>
+    <t>sich bewerben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebenslauf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">geboren werden </t>
+  </si>
+  <si>
+    <t>mit 24 Jahren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fähigkeit </t>
+  </si>
+  <si>
+    <t>vielseitig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unternehmungslustig, aktiv </t>
+  </si>
+  <si>
+    <t>mit Menschen umgehen können</t>
+  </si>
+  <si>
+    <t>saber (yo sé) gestionar problemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interviewer/in </t>
+  </si>
+  <si>
+    <t>beitragen; bringen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persönlichkeitsentwicklung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">als Kind, von klein auf </t>
+  </si>
+  <si>
+    <t>vor Publikum / öffentlich sprechen</t>
+  </si>
+  <si>
+    <t>den Geist öffnen, den Horizont erweitern</t>
+  </si>
+  <si>
+    <t>Kolonial-</t>
+  </si>
+  <si>
+    <t>Pro-Kopf-Einkommen</t>
+  </si>
+  <si>
+    <t>eine (schwierige) Lage bewältigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradies </t>
+  </si>
+  <si>
+    <t>Dekade, Jahrzehnt</t>
+  </si>
+  <si>
+    <t>tropisch, Tropen-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahrzehntelang </t>
+  </si>
+  <si>
+    <t>weltweit, auf der ganzen Welt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werben für </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anziehen, anlocken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eng, innig, vertraut </t>
+  </si>
+  <si>
+    <t>assoziiert</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Rechts-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darlehen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">es, das, dieses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten pl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niedrig, gering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">preiswert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">relativ, verhältnismäßig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potenzial, Möglichkeiten </t>
   </si>
 </sst>
 </file>
@@ -9679,7 +13690,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Vocabulario_Leccion8" connectionId="2" xr16:uid="{6CEFBE53-EF86-7346-9FE7-FD9ECB9E5B4E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Vocabulario_Leccion7" connectionId="2" xr16:uid="{926EBC07-FA8F-5D48-AE14-5F68D8F17C46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Vocabulario_Leccion8" connectionId="3" xr16:uid="{6CEFBE53-EF86-7346-9FE7-FD9ECB9E5B4E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10661,11 +14676,1618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA496836-A010-4241-A12D-C8388BB25F0A}">
+  <dimension ref="A1:B197"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CE949-50A6-CE4F-AECF-A00C3C4C3187}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96CC01-0B0F-424E-A8CC-A5DCF653B241}">
   <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A165" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -14089,7 +19711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65B0679-D923-C946-9AEF-EA41D8AF7D99}">
   <dimension ref="A1:B332"/>
   <sheetViews>
-    <sheetView topLeftCell="A305" workbookViewId="0">
+    <sheetView topLeftCell="A304" workbookViewId="0">
       <selection activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
@@ -20867,7 +26489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00BB160-D62C-CF41-A96E-16FF9F5954C6}">
   <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A275" zoomScale="125" workbookViewId="0">
       <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
@@ -23179,15 +28801,4151 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64C8CB8-F30B-9645-9751-469C1619A47A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DCE5B1-A526-6147-8B5B-632C74DCF8CB}">
+  <dimension ref="A1:B314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B168" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>622</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>58</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>874</v>
+      </c>
+      <c r="B310" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64C8CB8-F30B-9645-9751-469C1619A47A}">
+  <dimension ref="A1:B200"/>
+  <sheetViews>
+    <sheetView topLeftCell="A191" zoomScale="158" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>